--- a/DIAGRAMS/PROJMAN/PROJMAN-COST.xlsx
+++ b/DIAGRAMS/PROJMAN/PROJMAN-COST.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ACADZ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc Jimenez\Documents\GitHub\SOFTDEV-QUALITY\DIAGRAMS\PROJMAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B500514-67B6-4F2B-976A-7CC64D26A686}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -56,13 +57,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="_-[$₱-3409]* #,##0.00_-;\-[$₱-3409]* #,##0.00_-;_-[$₱-3409]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-[$₱-3409]* #,##0.00_-;\-[$₱-3409]* #,##0.00_-;_-[$₱-3409]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,6 +92,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -111,16 +119,19 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -401,141 +412,141 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="A1:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="14.125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="16.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="1" max="1" width="34.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="14.109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="8">
         <v>917718</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="8">
         <f>B2/12</f>
         <v>76476.5</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="8">
         <f>C2/20</f>
         <v>3823.8249999999998</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="4">
         <v>63</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <f>D2*E2</f>
         <v>240900.97499999998</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="9">
         <v>246000</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="8">
         <f t="shared" ref="C3:C5" si="0">B3/12</f>
         <v>20500</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="8">
         <f t="shared" ref="D3:D5" si="1">C3/20</f>
         <v>1025</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="4">
         <v>36</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <f t="shared" ref="F3:F5" si="2">D3*E3</f>
         <v>36900</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="8">
         <v>195080</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="8">
         <f t="shared" si="0"/>
         <v>16256.666666666666</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="8">
         <f t="shared" si="1"/>
         <v>812.83333333333326</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="4">
         <v>63</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <f t="shared" si="2"/>
         <v>51208.499999999993</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="8">
         <v>262101</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="8">
         <f t="shared" si="0"/>
         <v>21841.75</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="8">
         <f t="shared" si="1"/>
         <v>1092.0875000000001</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="4">
         <v>36</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <f t="shared" si="2"/>
         <v>39315.15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F6" s="4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F6" s="3">
         <f>SUM(F2:F5)</f>
         <v>368324.625</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D9" s="4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D9" s="3">
         <v>517.77</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>3</v>
       </c>
       <c r="F9">
@@ -543,69 +554,69 @@
         <v>1553.31</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D12" s="4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D12" s="3">
         <v>3609.08</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D13" s="4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D13" s="3">
         <v>4166.67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D14" s="4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D14" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D15" s="4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D15" s="3">
         <f>SUM(D12:D14)</f>
         <v>14275.75</v>
       </c>
     </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D19" s="4">
+    <row r="19" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D19" s="3">
         <f>SUM(D2:D5)</f>
         <v>6753.7458333333325</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="4">
         <v>8</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="3">
         <f>$D$19*E19</f>
         <v>54029.96666666666</v>
       </c>
     </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E20" s="6">
+    <row r="20" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E20" s="4">
         <v>11</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="3">
         <f t="shared" ref="F20:F22" si="3">$D$19*E20</f>
         <v>74291.204166666663</v>
       </c>
     </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E21" s="6">
+    <row r="21" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E21" s="4">
         <v>37</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="3">
         <f t="shared" si="3"/>
         <v>249888.5958333333</v>
       </c>
     </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E22" s="6">
+    <row r="22" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E22" s="4">
         <v>6</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="3">
         <f t="shared" si="3"/>
         <v>40522.474999999991</v>
       </c>
     </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="F23" s="4">
+    <row r="23" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="F23" s="3">
         <f>SUM(F19:F22)</f>
         <v>418732.24166666658</v>
       </c>
